--- a/src/data/housing_market_Q1/final/mw2301-january-city-toronto.xlsx
+++ b/src/data/housing_market_Q1/final/mw2301-january-city-toronto.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all_home_type" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="detached" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="semi_detached" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="townhouse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="condo_townhouse" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="condo_apartment" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="link" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="coop_apartment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="detached_condo" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="co_ownership_apartment" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="index_and_benchmark_price" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_home_type" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detached" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="semi_detached" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="townhouse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condo_townhouse" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condo_apartment" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="link" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coop_apartment" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detached_condo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="co_ownership_apartment" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="index_and_benchmark_price" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -504,20 +504,14 @@
           <t>3,100</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$3,219,870,216</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,038,668</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$900,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>3219870216</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1038668</v>
+      </c>
+      <c r="F2" t="n">
+        <v>900000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -550,20 +544,14 @@
           <t>1,108</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,094,529,050</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$987,842</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$797,500</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1094529050</v>
+      </c>
+      <c r="E3" t="n">
+        <v>987842</v>
+      </c>
+      <c r="F3" t="n">
+        <v>797500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -596,20 +584,14 @@
           <t>314</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$296,982,212</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$945,803</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$810,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>296982212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>945803</v>
+      </c>
+      <c r="F4" t="n">
+        <v>810000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -642,20 +624,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$17,370,999</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,085,687</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>17370999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1085687</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1100000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -688,20 +664,14 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$24,980,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,189,524</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>24980000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1189524</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1120000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -734,20 +704,14 @@
           <t>25</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$20,573,888</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$822,956</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$810,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>20573888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>822956</v>
+      </c>
+      <c r="F7" t="n">
+        <v>810000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -780,20 +744,14 @@
           <t>41</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$35,576,588</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$867,722</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$810,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>35576588</v>
+      </c>
+      <c r="E8" t="n">
+        <v>867722</v>
+      </c>
+      <c r="F8" t="n">
+        <v>810000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -826,20 +784,14 @@
           <t>38</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$28,484,700</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$749,597</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$690,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>28484700</v>
+      </c>
+      <c r="E9" t="n">
+        <v>749597</v>
+      </c>
+      <c r="F9" t="n">
+        <v>690000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -872,20 +824,14 @@
           <t>54</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$46,022,188</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$852,263</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$772,500</t>
-        </is>
+      <c r="D10" t="n">
+        <v>46022188</v>
+      </c>
+      <c r="E10" t="n">
+        <v>852263</v>
+      </c>
+      <c r="F10" t="n">
+        <v>772500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -918,20 +864,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$16,124,700</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,791,633</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>16124700</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1791633</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1200000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -964,20 +904,14 @@
           <t>67</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$73,599,111</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,098,494</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$720,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>73599111</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1098494</v>
+      </c>
+      <c r="F12" t="n">
+        <v>720000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1010,20 +944,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$12,094,538</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$806,303</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$700,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>12094538</v>
+      </c>
+      <c r="E13" t="n">
+        <v>806303</v>
+      </c>
+      <c r="F13" t="n">
+        <v>700000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1056,20 +984,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$22,155,500</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$791,268</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$827,500</t>
-        </is>
+      <c r="D14" t="n">
+        <v>22155500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>791268</v>
+      </c>
+      <c r="F14" t="n">
+        <v>827500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1102,20 +1024,14 @@
           <t>535</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$551,619,125</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,031,064</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$748,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>551619125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1031064</v>
+      </c>
+      <c r="F15" t="n">
+        <v>748000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1148,20 +1064,14 @@
           <t>164</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$137,272,429</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$837,027</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$695,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>137272429</v>
+      </c>
+      <c r="E16" t="n">
+        <v>837027</v>
+      </c>
+      <c r="F16" t="n">
+        <v>695000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1194,20 +1104,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$46,973,930</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,677,640</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,300,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>46973930</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1677640</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1300000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1240,20 +1144,14 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$29,522,992</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,283,608</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$989,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>29522992</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1283608</v>
+      </c>
+      <c r="F18" t="n">
+        <v>989000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1286,20 +1184,14 @@
           <t>34</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$60,259,888</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,772,350</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,619,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>60259888</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1772350</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1619000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1332,20 +1224,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$11,273,518</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,024,865</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,045,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>11273518</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1024865</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1045000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1378,20 +1264,14 @@
           <t>40</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$41,739,100</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,043,478</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$784,500</t>
-        </is>
+      <c r="D21" t="n">
+        <v>41739100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1043478</v>
+      </c>
+      <c r="F21" t="n">
+        <v>784500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1424,20 +1304,14 @@
           <t>59</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$45,824,999</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$776,695</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$670,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>45824999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>776695</v>
+      </c>
+      <c r="F22" t="n">
+        <v>670000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1470,20 +1344,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$17,953,500</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$2,564,786</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$2,080,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>17953500</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2564786</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2080000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1516,20 +1384,14 @@
           <t>26</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$21,047,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$809,500</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$696,350</t>
-        </is>
+      <c r="D24" t="n">
+        <v>21047000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>809500</v>
+      </c>
+      <c r="F24" t="n">
+        <v>696350</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1562,20 +1424,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$22,203,500</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,110,175</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$593,750</t>
-        </is>
+      <c r="D25" t="n">
+        <v>22203500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1110175</v>
+      </c>
+      <c r="F25" t="n">
+        <v>593750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1608,20 +1464,14 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$9,300,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$1,550,000</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,650,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>9300000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1650000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1654,20 +1504,14 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$23,639,400</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$984,975</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$707,500</t>
-        </is>
+      <c r="D27" t="n">
+        <v>23639400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>984975</v>
+      </c>
+      <c r="F27" t="n">
+        <v>707500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1700,20 +1544,14 @@
           <t>41</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$42,079,137</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,026,320</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$730,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>42079137</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1026320</v>
+      </c>
+      <c r="F28" t="n">
+        <v>730000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1746,20 +1584,14 @@
           <t>52</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$42,529,732</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$817,879</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$660,444</t>
-        </is>
+      <c r="D29" t="n">
+        <v>42529732</v>
+      </c>
+      <c r="E29" t="n">
+        <v>817879</v>
+      </c>
+      <c r="F29" t="n">
+        <v>660444</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1792,20 +1624,14 @@
           <t>259</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$245,927,713</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$949,528</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$901,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>245927713</v>
+      </c>
+      <c r="E30" t="n">
+        <v>949528</v>
+      </c>
+      <c r="F30" t="n">
+        <v>901000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1838,20 +1664,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$25,128,000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,142,182</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$980,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>25128000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1142182</v>
+      </c>
+      <c r="F31" t="n">
+        <v>980000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1884,20 +1704,14 @@
           <t>25</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$27,844,196</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,113,768</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,160,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>27844196</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1113768</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1160000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1930,20 +1744,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$31,796,000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,135,571</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,058,500</t>
-        </is>
+      <c r="D33" t="n">
+        <v>31796000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1135571</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1058500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1976,20 +1784,14 @@
           <t>33</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$28,855,499</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$874,409</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$880,000</t>
-        </is>
+      <c r="D34" t="n">
+        <v>28855499</v>
+      </c>
+      <c r="E34" t="n">
+        <v>874409</v>
+      </c>
+      <c r="F34" t="n">
+        <v>880000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2022,20 +1824,14 @@
           <t>31</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$26,278,576</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$847,696</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$690,000</t>
-        </is>
+      <c r="D35" t="n">
+        <v>26278576</v>
+      </c>
+      <c r="E35" t="n">
+        <v>847696</v>
+      </c>
+      <c r="F35" t="n">
+        <v>690000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2068,20 +1864,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$10,524,180</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$877,015</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$867,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>10524180</v>
+      </c>
+      <c r="E36" t="n">
+        <v>877015</v>
+      </c>
+      <c r="F36" t="n">
+        <v>867000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2114,20 +1904,14 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$18,032,000</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$858,667</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$680,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>18032000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>858667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>680000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2160,20 +1944,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$16,748,200</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$837,410</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$737,500</t>
-        </is>
+      <c r="D38" t="n">
+        <v>16748200</v>
+      </c>
+      <c r="E38" t="n">
+        <v>837410</v>
+      </c>
+      <c r="F38" t="n">
+        <v>737500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2206,20 +1984,14 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$25,363,276</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$845,443</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$767,500</t>
-        </is>
+      <c r="D39" t="n">
+        <v>25363276</v>
+      </c>
+      <c r="E39" t="n">
+        <v>845443</v>
+      </c>
+      <c r="F39" t="n">
+        <v>767500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2252,20 +2024,14 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$17,300,500</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$1,017,676</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$1,035,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>17300500</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1017676</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1035000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2298,20 +2064,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$18,057,286</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$902,864</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$910,000</t>
-        </is>
+      <c r="D41" t="n">
+        <v>18057286</v>
+      </c>
+      <c r="E41" t="n">
+        <v>902864</v>
+      </c>
+      <c r="F41" t="n">
+        <v>910000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2362,17 +2122,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2408,20 +2168,14 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,966,000</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$393,200</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$395,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1966000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>393200</v>
+      </c>
+      <c r="F2" t="n">
+        <v>395000</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -2452,20 +2206,14 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,966,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$393,200</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$395,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1966000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>393200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>395000</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -2496,20 +2244,14 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$695,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$347,500</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$347,500</t>
-        </is>
+      <c r="D4" t="n">
+        <v>695000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>347500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>347500</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2540,20 +2282,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$465,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$465,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$465,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>465000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>465000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>465000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2584,20 +2320,14 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$230,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$230,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$230,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>230000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>230000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2628,20 +2358,14 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$1,271,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$423,667</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$395,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1271000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>423667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>395000</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -2672,20 +2396,14 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$325,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$325,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$325,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>325000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>325000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>325000</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2716,20 +2434,14 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$551,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$551,000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$551,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>551000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>551000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>551000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2760,20 +2472,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$395,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$395,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$395,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>395000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>395000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>395000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7936,17 +7642,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7984,20 +7690,14 @@
           <t>1,384</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,857,117,451</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,341,848</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1857117451</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1341848</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1200000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8030,20 +7730,14 @@
           <t>318</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$472,587,533</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,486,124</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,270,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>472587533</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1486124</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1270000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8076,20 +7770,14 @@
           <t>122</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$162,678,063</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,333,427</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,119,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>162678063</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1333427</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1119000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -8122,20 +7810,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$3,135,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,567,500</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,567,500</t>
-        </is>
+      <c r="D5" t="n">
+        <v>3135000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1567500</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1567500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -8168,20 +7850,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$15,016,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,668,444</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,730,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>15016000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1668444</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1730000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -8214,20 +7890,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$11,489,888</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$820,706</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$843,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>11489888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>820706</v>
+      </c>
+      <c r="F7" t="n">
+        <v>843000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -8260,20 +7930,14 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$23,633,888</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,125,423</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,005,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>23633888</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1125423</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1005000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -8306,20 +7970,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$9,704,200</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$1,078,244</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$1,040,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>9704200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1078244</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1040000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -8352,20 +8010,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$15,479,188</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,289,932</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,352,500</t>
-        </is>
+      <c r="D10" t="n">
+        <v>15479188</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1289932</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1352500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -8398,20 +8050,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$14,325,700</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$2,046,529</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,710,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>14325700</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2046529</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1710000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -8444,20 +8090,14 @@
           <t>27</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$48,670,811</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,802,623</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,550,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>48670811</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1802623</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1550000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -8490,20 +8130,14 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$7,418,388</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,236,398</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,331,250</t>
-        </is>
+      <c r="D13" t="n">
+        <v>7418388</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1236398</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1331250</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -8536,20 +8170,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$13,805,000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$920,333</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$930,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>13805000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>920333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>930000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -8582,20 +8210,14 @@
           <t>88</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$179,148,798</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$2,035,782</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$1,827,500</t>
-        </is>
+      <c r="D15" t="n">
+        <v>179148798</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2035782</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1827500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -8628,20 +8250,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$3,070,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,535,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,535,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>3070000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1535000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1535000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -8674,20 +8290,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$11,857,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$2,371,400</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,852,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>11857000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2371400</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1852000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -8720,20 +8330,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$17,257,704</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,725,770</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,325,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>17257704</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1725770</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1325000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -8766,20 +8370,14 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$48,258,888</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$2,098,213</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,810,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>48258888</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2098213</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1810000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -8812,20 +8410,14 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$8,100,518</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,350,086</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,356,250</t>
-        </is>
+      <c r="D20" t="n">
+        <v>8100518</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1350086</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1356250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -8858,20 +8450,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$17,227,000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$2,153,375</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$2,270,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>17227000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2153375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2270000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -8942,20 +8528,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$12,301,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$4,100,333</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$3,550,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>12301000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4100333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3550000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -8988,20 +8568,14 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$1,840,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$1,840,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,840,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>1840000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1840000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1840000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -9034,20 +8608,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$12,555,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$2,511,000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$2,350,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>12555000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2511000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2350000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -9080,20 +8648,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$6,095,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$2,031,667</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$2,020,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>6095000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2031667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2020000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -9126,20 +8688,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$10,259,400</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$2,051,880</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$2,200,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>10259400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2051880</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2200000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -9172,20 +8728,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$15,215,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$2,173,571</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$1,950,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>15215000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2173571</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1950000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -9218,20 +8768,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$15,112,288</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$1,511,229</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$1,522,500</t>
-        </is>
+      <c r="D29" t="n">
+        <v>15112288</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1511229</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1522500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -9264,20 +8808,14 @@
           <t>108</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$130,760,672</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$1,210,747</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$1,095,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>130760672</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1210747</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1095000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -9310,20 +8848,14 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$7,585,000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,896,250</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,917,500</t>
-        </is>
+      <c r="D31" t="n">
+        <v>7585000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1896250</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1917500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -9356,20 +8888,14 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$7,521,196</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,253,533</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,320,125</t>
-        </is>
+      <c r="D32" t="n">
+        <v>7521196</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1253533</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1320125</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -9402,20 +8928,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$18,063,500</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,204,233</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,015,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>18063500</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1204233</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1015000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -9448,20 +8968,14 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$19,501,000</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$1,083,389</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$1,012,500</t>
-        </is>
+      <c r="D34" t="n">
+        <v>19501000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1083389</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1012500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -9494,20 +9008,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$12,033,888</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$1,337,099</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
+      <c r="D35" t="n">
+        <v>12033888</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1337099</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1350000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -9540,20 +9048,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$6,694,000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$956,286</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>6694000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>956286</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -9586,20 +9088,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$8,912,000</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$1,273,143</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$1,245,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>8912000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1273143</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1245000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -9632,20 +9128,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$8,598,700</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$1,228,386</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D38" t="n">
+        <v>8598700</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1228386</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -9678,20 +9168,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$16,740,888</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$1,116,059</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$1,072,000</t>
-        </is>
+      <c r="D39" t="n">
+        <v>16740888</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1116059</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1072000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -9724,20 +9208,14 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$12,565,000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$1,396,111</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$1,315,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>12565000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1396111</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1315000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -9770,20 +9248,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$12,545,500</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$1,140,500</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D41" t="n">
+        <v>12545500</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1140500</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1100000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -9834,17 +9306,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -9880,20 +9352,14 @@
       <c r="C2" t="n">
         <v>240</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$244,720,268</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,019,668</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$968,965</t>
-        </is>
+      <c r="D2" t="n">
+        <v>244720268</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1019668</v>
+      </c>
+      <c r="F2" t="n">
+        <v>968965</v>
       </c>
       <c r="G2" t="n">
         <v>465</v>
@@ -9924,20 +9390,14 @@
       <c r="C3" t="n">
         <v>84</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$96,642,498</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,150,506</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,080,444</t>
-        </is>
+      <c r="D3" t="n">
+        <v>96642498</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1150506</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1080444</v>
       </c>
       <c r="G3" t="n">
         <v>199</v>
@@ -9968,20 +9428,14 @@
       <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$26,059,500</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,042,380</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>26059500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1042380</v>
+      </c>
+      <c r="F4" t="n">
+        <v>950000</v>
       </c>
       <c r="G4" t="n">
         <v>53</v>
@@ -10012,20 +9466,14 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$4,743,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,581,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>4743000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1581000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1350000</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -10056,20 +9504,14 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$3,532,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,177,333</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>3532000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1177333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1120000</v>
       </c>
       <c r="G6" t="n">
         <v>15</v>
@@ -10100,20 +9542,14 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$6,230,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$1,038,333</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>6230000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1038333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1050000</v>
       </c>
       <c r="G7" t="n">
         <v>11</v>
@@ -10144,20 +9580,14 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1020000</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -10188,20 +9618,14 @@
       <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$7,049,500</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$881,188</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$896,250</t>
-        </is>
+      <c r="D9" t="n">
+        <v>7049500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>881188</v>
+      </c>
+      <c r="F9" t="n">
+        <v>896250</v>
       </c>
       <c r="G9" t="n">
         <v>12</v>
@@ -10232,20 +9656,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$860,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>860000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>860000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>860000</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -10276,20 +9694,14 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>920000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>920000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>920000</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -10320,20 +9732,14 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$1,705,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$852,500</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$852,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>852500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>852500</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -10364,20 +9770,14 @@
       <c r="C13" t="n">
         <v>22</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$28,104,818</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,277,492</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,141,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>28104818</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1277492</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1141000</v>
       </c>
       <c r="G13" t="n">
         <v>75</v>
@@ -10408,20 +9808,14 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$3,415,000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,138,333</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>3415000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1138333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1120000</v>
       </c>
       <c r="G14" t="n">
         <v>27</v>
@@ -10452,20 +9846,14 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$4,643,930</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,547,977</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$967,930</t>
-        </is>
+      <c r="D15" t="n">
+        <v>4643930</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1547977</v>
+      </c>
+      <c r="F15" t="n">
+        <v>967930</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -10496,20 +9884,14 @@
       <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$6,632,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,105,333</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,044,500</t>
-        </is>
+      <c r="D16" t="n">
+        <v>6632000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1105333</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1044500</v>
       </c>
       <c r="G16" t="n">
         <v>13</v>
@@ -10540,20 +9922,14 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$2,878,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,439,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,439,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2878000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1439000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1439000</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -10584,20 +9960,14 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>950000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>950000</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -10628,20 +9998,14 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$2,832,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,416,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,416,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2832000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1416000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1416000</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -10672,20 +10036,14 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1350000</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -10716,20 +10074,14 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$1,655,000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,655,000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,655,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1655000</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -10760,20 +10112,14 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$1,610,000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,610,000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,610,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1610000</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -10804,20 +10150,14 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$1,060,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,060,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$1,060,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1060000</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -10848,20 +10188,14 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$1,078,888</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$1,078,888</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,078,888</t>
-        </is>
+      <c r="D24" t="n">
+        <v>1078888</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1078888</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1078888</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -10892,20 +10226,14 @@
       <c r="C25" t="n">
         <v>37</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$42,478,180</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,148,059</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$1,125,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>42478180</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1148059</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1125000</v>
       </c>
       <c r="G25" t="n">
         <v>71</v>
@@ -10936,20 +10264,14 @@
       <c r="C26" t="n">
         <v>10</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$11,351,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$1,135,100</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,147,500</t>
-        </is>
+      <c r="D26" t="n">
+        <v>11351000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1135100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1147500</v>
       </c>
       <c r="G26" t="n">
         <v>22</v>
@@ -10980,20 +10302,14 @@
       <c r="C27" t="n">
         <v>11</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$14,240,000</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$1,294,545</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$1,265,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>14240000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1294545</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1265000</v>
       </c>
       <c r="G27" t="n">
         <v>14</v>
@@ -11024,20 +10340,14 @@
       <c r="C28" t="n">
         <v>6</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$8,360,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,393,333</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$1,289,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>8360000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1393333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1289000</v>
       </c>
       <c r="G28" t="n">
         <v>16</v>
@@ -11068,20 +10378,14 @@
       <c r="C29" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$1,645,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$822,500</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$822,500</t>
-        </is>
+      <c r="D29" t="n">
+        <v>1645000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>822500</v>
+      </c>
+      <c r="F29" t="n">
+        <v>822500</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -11112,20 +10416,14 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>940000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>940000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>940000</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -11156,20 +10454,14 @@
       <c r="C31" t="n">
         <v>3</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$2,376,180</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$792,060</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$849,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>2376180</v>
+      </c>
+      <c r="E31" t="n">
+        <v>792060</v>
+      </c>
+      <c r="F31" t="n">
+        <v>849000</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -11200,20 +10492,14 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$1,003,000</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,003,000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,003,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>1003000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1003000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1003000</v>
       </c>
       <c r="G32" t="n">
         <v>6</v>
@@ -11244,20 +10530,14 @@
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>940000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>940000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>940000</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -11288,20 +10568,14 @@
       <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$1,623,000</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$811,500</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$811,500</t>
-        </is>
+      <c r="D34" t="n">
+        <v>1623000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>811500</v>
+      </c>
+      <c r="F34" t="n">
+        <v>811500</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -11352,17 +10626,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -11398,20 +10672,14 @@
       <c r="C2" t="n">
         <v>277</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$270,490,485</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$976,500</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$925,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>270490485</v>
+      </c>
+      <c r="E2" t="n">
+        <v>976500</v>
+      </c>
+      <c r="F2" t="n">
+        <v>925000</v>
       </c>
       <c r="G2" t="n">
         <v>597</v>
@@ -11442,20 +10710,14 @@
       <c r="C3" t="n">
         <v>28</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$37,278,887</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,331,389</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,095,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>37278887</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1331389</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1095000</v>
       </c>
       <c r="G3" t="n">
         <v>74</v>
@@ -11486,20 +10748,14 @@
       <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$9,825,999</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$982,600</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$970,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>9825999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>982600</v>
+      </c>
+      <c r="F4" t="n">
+        <v>970000</v>
       </c>
       <c r="G4" t="n">
         <v>23</v>
@@ -11530,20 +10786,14 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$2,299,999</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2299999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1150000</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -11574,20 +10824,14 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$1,170,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,170,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,170,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1170000</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -11618,20 +10862,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$665,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$665,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$665,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>665000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>665000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>665000</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -11662,20 +10900,14 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$1,950,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$975,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$975,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>975000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>975000</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -11706,20 +10938,14 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>940000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>940000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>940000</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -11750,20 +10976,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1200000</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -11794,20 +11014,14 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$1,601,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$800,500</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$800,500</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>800500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>800500</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -11838,20 +11052,14 @@
       <c r="C12" t="n">
         <v>12</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$20,790,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,732,500</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,542,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>20790000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1732500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1542500</v>
       </c>
       <c r="G12" t="n">
         <v>35</v>
@@ -11882,20 +11090,14 @@
       <c r="C13" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$9,825,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,637,500</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,610,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>9825000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1637500</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1610000</v>
       </c>
       <c r="G13" t="n">
         <v>12</v>
@@ -11926,20 +11128,14 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$6,160,000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$3,080,000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$3,080,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>6160000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3080000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3080000</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -11970,20 +11166,14 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$1,925,000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$962,500</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$962,500</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1925000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>962500</v>
+      </c>
+      <c r="F15" t="n">
+        <v>962500</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -12014,20 +11204,14 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$1,380,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,380,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,380,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1380000</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -12058,20 +11242,14 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$1,500,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,500,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,500,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1500000</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -12102,20 +11280,14 @@
       <c r="C18" t="n">
         <v>6</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$6,662,888</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,110,481</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,031,944</t>
-        </is>
+      <c r="D18" t="n">
+        <v>6662888</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1110481</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1031944</v>
       </c>
       <c r="G18" t="n">
         <v>16</v>
@@ -12146,20 +11318,14 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$1,601,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,601,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,601,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1601000</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -12190,20 +11356,14 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$2,068,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,034,000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,034,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2068000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1034000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1034000</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -12234,20 +11394,14 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$1,080,888</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,080,888</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,080,888</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1080888</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1080888</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1080888</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -12278,20 +11432,14 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$930,000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$930,000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$930,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>930000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>930000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>930000</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -12322,20 +11470,14 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$983,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$983,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$983,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>983000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>983000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>983000</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -12386,17 +11528,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -12432,20 +11574,14 @@
       <c r="C2" t="n">
         <v>222</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$172,427,019</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$776,698</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$729,500</t>
-        </is>
+      <c r="D2" t="n">
+        <v>172427019</v>
+      </c>
+      <c r="E2" t="n">
+        <v>776698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>729500</v>
       </c>
       <c r="G2" t="n">
         <v>527</v>
@@ -12476,20 +11612,14 @@
       <c r="C3" t="n">
         <v>64</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$52,990,317</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$827,974</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$743,750</t>
-        </is>
+      <c r="D3" t="n">
+        <v>52990317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>827974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>743750</v>
       </c>
       <c r="G3" t="n">
         <v>179</v>
@@ -12520,20 +11650,14 @@
       <c r="C4" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$17,882,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$812,818</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$739,250</t>
-        </is>
+      <c r="D4" t="n">
+        <v>17882000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>812818</v>
+      </c>
+      <c r="F4" t="n">
+        <v>739250</v>
       </c>
       <c r="G4" t="n">
         <v>71</v>
@@ -12564,20 +11688,14 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$3,542,500</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,180,833</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,200,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>3542500</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1180833</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1200000</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -12608,20 +11726,14 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$1,464,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$732,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$732,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>1464000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>732000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>732000</v>
       </c>
       <c r="G6" t="n">
         <v>17</v>
@@ -12652,20 +11764,14 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$2,577,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$644,250</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$637,500</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2577000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>644250</v>
+      </c>
+      <c r="F7" t="n">
+        <v>637500</v>
       </c>
       <c r="G7" t="n">
         <v>16</v>
@@ -12696,20 +11802,14 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$3,642,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$910,500</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$916,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>3642000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>910500</v>
+      </c>
+      <c r="F8" t="n">
+        <v>916000</v>
       </c>
       <c r="G8" t="n">
         <v>8</v>
@@ -12740,20 +11840,14 @@
       <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$4,441,500</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$740,250</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$730,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>4441500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>740250</v>
+      </c>
+      <c r="F9" t="n">
+        <v>730000</v>
       </c>
       <c r="G9" t="n">
         <v>11</v>
@@ -12784,20 +11878,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$850,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$850,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$850,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>850000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>850000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12828,20 +11916,14 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$1,365,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$682,500</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$682,500</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1365000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>682500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>682500</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -12872,20 +11954,14 @@
       <c r="C12" t="n">
         <v>28</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$24,354,317</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$869,797</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$775,640</t>
-        </is>
+      <c r="D12" t="n">
+        <v>24354317</v>
+      </c>
+      <c r="E12" t="n">
+        <v>869797</v>
+      </c>
+      <c r="F12" t="n">
+        <v>775640</v>
       </c>
       <c r="G12" t="n">
         <v>64</v>
@@ -12916,20 +11992,14 @@
       <c r="C13" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$5,152,700</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$858,783</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$880,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>5152700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>858783</v>
+      </c>
+      <c r="F13" t="n">
+        <v>880000</v>
       </c>
       <c r="G13" t="n">
         <v>11</v>
@@ -12960,20 +12030,14 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$1,570,000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,570,000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,570,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1570000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1570000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1570000</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -13004,20 +12068,14 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$1,630,000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$815,000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$815,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>815000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>815000</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -13048,20 +12106,14 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$3,540,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,180,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,045,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>3540000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1180000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1045000</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -13092,20 +12144,14 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$1,355,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$677,500</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$677,500</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1355000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>677500</v>
+      </c>
+      <c r="F17" t="n">
+        <v>677500</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -13136,20 +12182,14 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$1,425,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,425,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,425,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>1425000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1425000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1425000</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -13180,20 +12220,14 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$725,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$725,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$725,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>725000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>725000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>725000</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -13224,20 +12258,14 @@
       <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$3,808,337</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$761,667</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$667,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>3808337</v>
+      </c>
+      <c r="E20" t="n">
+        <v>761667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>667000</v>
       </c>
       <c r="G20" t="n">
         <v>11</v>
@@ -13268,20 +12296,14 @@
       <c r="C21" t="n">
         <v>7</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$5,148,280</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$735,469</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$765,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>5148280</v>
+      </c>
+      <c r="E21" t="n">
+        <v>735469</v>
+      </c>
+      <c r="F21" t="n">
+        <v>765000</v>
       </c>
       <c r="G21" t="n">
         <v>14</v>
@@ -13312,20 +12334,14 @@
       <c r="C22" t="n">
         <v>14</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$10,754,000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$768,143</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$715,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>10754000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>768143</v>
+      </c>
+      <c r="F22" t="n">
+        <v>715000</v>
       </c>
       <c r="G22" t="n">
         <v>44</v>
@@ -13356,20 +12372,14 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$1,210,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,210,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$1,210,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>1210000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1210000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1210000</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -13400,20 +12410,14 @@
       <c r="C24" t="n">
         <v>3</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$2,613,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$871,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$913,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>2613000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>871000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>913000</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -13444,20 +12448,14 @@
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$565,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$565,000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$565,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>565000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>565000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>565000</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -13488,20 +12486,14 @@
       <c r="C26" t="n">
         <v>2</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$1,415,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$707,500</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$707,500</t>
-        </is>
+      <c r="D26" t="n">
+        <v>1415000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>707500</v>
+      </c>
+      <c r="F26" t="n">
+        <v>707500</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -13532,20 +12524,14 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>790000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>790000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>790000</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -13576,20 +12562,14 @@
       <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$2,736,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$684,000</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$672,500</t>
-        </is>
+      <c r="D28" t="n">
+        <v>2736000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>684000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>672500</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -13620,20 +12600,14 @@
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$720,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$720,000</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$720,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>720000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>720000</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -13664,20 +12638,14 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$705,000</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$705,000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$705,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>705000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>705000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>705000</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -13728,17 +12696,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -13774,20 +12742,14 @@
       <c r="C2" t="n">
         <v>950</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$653,310,836</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$687,696</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$610,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>653310836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>687696</v>
+      </c>
+      <c r="F2" t="n">
+        <v>610000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -13820,20 +12782,14 @@
       <c r="C3" t="n">
         <v>604</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$429,547,315</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$711,171</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$626,250</t>
-        </is>
+      <c r="D3" t="n">
+        <v>429547315</v>
+      </c>
+      <c r="E3" t="n">
+        <v>711171</v>
+      </c>
+      <c r="F3" t="n">
+        <v>626250</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -13866,20 +12822,14 @@
       <c r="C4" t="n">
         <v>132</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$79,242,650</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$600,323</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$575,500</t>
-        </is>
+      <c r="D4" t="n">
+        <v>79242650</v>
+      </c>
+      <c r="E4" t="n">
+        <v>600323</v>
+      </c>
+      <c r="F4" t="n">
+        <v>575500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -13912,20 +12862,14 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$3,185,500</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$637,100</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$600,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>3185500</v>
+      </c>
+      <c r="E5" t="n">
+        <v>637100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>600000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -13958,20 +12902,14 @@
       <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$5,262,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$657,750</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$580,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>5262000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>657750</v>
+      </c>
+      <c r="F6" t="n">
+        <v>580000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -14004,20 +12942,14 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$2,189,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$547,250</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$529,500</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2189000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>547250</v>
+      </c>
+      <c r="F7" t="n">
+        <v>529500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -14050,20 +12982,14 @@
       <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$9,458,700</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$556,394</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$540,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>9458700</v>
+      </c>
+      <c r="E8" t="n">
+        <v>556394</v>
+      </c>
+      <c r="F8" t="n">
+        <v>540000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -14096,20 +13022,14 @@
       <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$6,974,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$498,143</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$517,500</t>
-        </is>
+      <c r="D9" t="n">
+        <v>6974000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>498143</v>
+      </c>
+      <c r="F9" t="n">
+        <v>517500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -14142,20 +13062,14 @@
       <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$25,101,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$697,250</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$682,500</t>
-        </is>
+      <c r="D10" t="n">
+        <v>25101000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>697250</v>
+      </c>
+      <c r="F10" t="n">
+        <v>682500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -14188,20 +13102,14 @@
       <c r="C11" t="n">
         <v>33</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$19,566,800</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$592,933</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$570,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>19566800</v>
+      </c>
+      <c r="E11" t="n">
+        <v>592933</v>
+      </c>
+      <c r="F11" t="n">
+        <v>570000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -14234,20 +13142,14 @@
       <c r="C12" t="n">
         <v>8</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$3,826,150</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$478,269</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$462,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>3826150</v>
+      </c>
+      <c r="E12" t="n">
+        <v>478269</v>
+      </c>
+      <c r="F12" t="n">
+        <v>462500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -14280,20 +13182,14 @@
       <c r="C13" t="n">
         <v>7</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$3,679,500</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$525,643</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$527,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>3679500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>525643</v>
+      </c>
+      <c r="F13" t="n">
+        <v>527000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -14326,20 +13222,14 @@
       <c r="C14" t="n">
         <v>380</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$296,187,692</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$779,441</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$668,844</t>
-        </is>
+      <c r="D14" t="n">
+        <v>296187692</v>
+      </c>
+      <c r="E14" t="n">
+        <v>779441</v>
+      </c>
+      <c r="F14" t="n">
+        <v>668844</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -14372,20 +13262,14 @@
       <c r="C15" t="n">
         <v>146</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$115,484,729</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$790,991</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$674,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>115484729</v>
+      </c>
+      <c r="E15" t="n">
+        <v>790991</v>
+      </c>
+      <c r="F15" t="n">
+        <v>674000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -14418,20 +13302,14 @@
       <c r="C16" t="n">
         <v>18</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$24,313,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,350,722</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,140,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>24313000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1350722</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1140000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -14464,20 +13342,14 @@
       <c r="C17" t="n">
         <v>7</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$5,633,288</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$804,755</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$640,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>5633288</v>
+      </c>
+      <c r="E17" t="n">
+        <v>804755</v>
+      </c>
+      <c r="F17" t="n">
+        <v>640000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -14510,20 +13382,14 @@
       <c r="C18" t="n">
         <v>8</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$7,553,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$944,125</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$829,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>7553000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>944125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>829000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -14556,20 +13422,14 @@
       <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$3,173,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$634,600</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$625,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>3173000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>634600</v>
+      </c>
+      <c r="F19" t="n">
+        <v>625000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -14602,20 +13462,14 @@
       <c r="C20" t="n">
         <v>28</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$20,797,100</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$742,754</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$685,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20797100</v>
+      </c>
+      <c r="E20" t="n">
+        <v>742754</v>
+      </c>
+      <c r="F20" t="n">
+        <v>685000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -14648,20 +13502,14 @@
       <c r="C21" t="n">
         <v>51</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$36,976,999</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$725,039</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$650,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>36976999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>725039</v>
+      </c>
+      <c r="F21" t="n">
+        <v>650000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -14694,20 +13542,14 @@
       <c r="C22" t="n">
         <v>3</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$4,302,500</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,434,167</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,550,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>4302500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1434167</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1550000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -14740,20 +13582,14 @@
       <c r="C23" t="n">
         <v>22</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$16,529,500</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$751,341</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$696,350</t>
-        </is>
+      <c r="D23" t="n">
+        <v>16529500</v>
+      </c>
+      <c r="E23" t="n">
+        <v>751341</v>
+      </c>
+      <c r="F23" t="n">
+        <v>696350</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -14786,20 +13622,14 @@
       <c r="C24" t="n">
         <v>12</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$6,683,500</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$556,958</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$535,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>6683500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>556958</v>
+      </c>
+      <c r="F24" t="n">
+        <v>535000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -14832,20 +13662,14 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$1,780,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$890,000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$890,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>890000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>890000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -14878,20 +13702,14 @@
       <c r="C26" t="n">
         <v>16</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$10,215,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$638,438</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$575,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>10215000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>638438</v>
+      </c>
+      <c r="F26" t="n">
+        <v>575000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -14924,20 +13742,14 @@
       <c r="C27" t="n">
         <v>28</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$21,555,800</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$769,850</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$711,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>21555800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>769850</v>
+      </c>
+      <c r="F27" t="n">
+        <v>711000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -14970,20 +13782,14 @@
       <c r="C28" t="n">
         <v>34</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$21,190,276</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$623,243</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$605,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>21190276</v>
+      </c>
+      <c r="E28" t="n">
+        <v>623243</v>
+      </c>
+      <c r="F28" t="n">
+        <v>605000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -15016,20 +13822,14 @@
       <c r="C29" t="n">
         <v>92</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$54,116,973</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$588,228</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$567,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>54116973</v>
+      </c>
+      <c r="E29" t="n">
+        <v>588228</v>
+      </c>
+      <c r="F29" t="n">
+        <v>567000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -15062,20 +13862,14 @@
       <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$4,982,000</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$711,714</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$765,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>4982000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>711714</v>
+      </c>
+      <c r="F30" t="n">
+        <v>765000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -15108,20 +13902,14 @@
       <c r="C31" t="n">
         <v>5</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$3,470,000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$694,000</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$600,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>3470000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>694000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>600000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -15154,20 +13942,14 @@
       <c r="C32" t="n">
         <v>5</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$3,206,500</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$641,300</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$574,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>3206500</v>
+      </c>
+      <c r="E32" t="n">
+        <v>641300</v>
+      </c>
+      <c r="F32" t="n">
+        <v>574000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -15200,20 +13982,14 @@
       <c r="C33" t="n">
         <v>11</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$5,641,499</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$512,864</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$540,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>5641499</v>
+      </c>
+      <c r="E33" t="n">
+        <v>512864</v>
+      </c>
+      <c r="F33" t="n">
+        <v>540000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -15246,20 +14022,14 @@
       <c r="C34" t="n">
         <v>18</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$10,808,800</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$600,489</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$567,500</t>
-        </is>
+      <c r="D34" t="n">
+        <v>10808800</v>
+      </c>
+      <c r="E34" t="n">
+        <v>600489</v>
+      </c>
+      <c r="F34" t="n">
+        <v>567500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -15292,20 +14062,14 @@
       <c r="C35" t="n">
         <v>2</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$1,454,000</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$727,000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$727,000</t>
-        </is>
+      <c r="D35" t="n">
+        <v>1454000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>727000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>727000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -15338,20 +14102,14 @@
       <c r="C36" t="n">
         <v>12</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$7,327,000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$610,583</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$607,500</t>
-        </is>
+      <c r="D36" t="n">
+        <v>7327000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>610583</v>
+      </c>
+      <c r="F36" t="n">
+        <v>607500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -15384,20 +14142,14 @@
       <c r="C37" t="n">
         <v>11</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$6,279,500</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$570,864</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$550,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>6279500</v>
+      </c>
+      <c r="E37" t="n">
+        <v>570864</v>
+      </c>
+      <c r="F37" t="n">
+        <v>550000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -15430,20 +14182,14 @@
       <c r="C38" t="n">
         <v>11</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$5,886,388</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$535,126</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$520,000</t>
-        </is>
+      <c r="D38" t="n">
+        <v>5886388</v>
+      </c>
+      <c r="E38" t="n">
+        <v>535126</v>
+      </c>
+      <c r="F38" t="n">
+        <v>520000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -15476,20 +14222,14 @@
       <c r="C39" t="n">
         <v>4</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$1,877,500</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$469,375</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$467,500</t>
-        </is>
+      <c r="D39" t="n">
+        <v>1877500</v>
+      </c>
+      <c r="E39" t="n">
+        <v>469375</v>
+      </c>
+      <c r="F39" t="n">
+        <v>467500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -15522,20 +14262,14 @@
       <c r="C40" t="n">
         <v>6</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$3,183,786</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$530,631</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$507,500</t>
-        </is>
+      <c r="D40" t="n">
+        <v>3183786</v>
+      </c>
+      <c r="E40" t="n">
+        <v>530631</v>
+      </c>
+      <c r="F40" t="n">
+        <v>507500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -15588,17 +14322,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -15634,20 +14368,14 @@
       <c r="C2" t="n">
         <v>14</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$13,541,657</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$967,261</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$987,500</t>
-        </is>
+      <c r="D2" t="n">
+        <v>13541657</v>
+      </c>
+      <c r="E2" t="n">
+        <v>967261</v>
+      </c>
+      <c r="F2" t="n">
+        <v>987500</v>
       </c>
       <c r="G2" t="n">
         <v>31</v>
@@ -15678,20 +14406,14 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1135000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1135000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1135000</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
@@ -15722,20 +14444,14 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1135000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1135000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1135000</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -15766,20 +14482,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1135000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1135000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1135000</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -15830,17 +14540,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -15876,20 +14586,14 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,601,500</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$533,833</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1601500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>533833</v>
+      </c>
+      <c r="F2" t="n">
+        <v>599000</v>
       </c>
       <c r="G2" t="n">
         <v>12</v>
@@ -15920,20 +14624,14 @@
       <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,601,500</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$533,833</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1601500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>533833</v>
+      </c>
+      <c r="F3" t="n">
+        <v>599000</v>
       </c>
       <c r="G3" t="n">
         <v>9</v>
@@ -15964,20 +14662,14 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>599000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>599000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>599000</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -16008,20 +14700,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$599,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>599000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>599000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>599000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -16052,20 +14738,14 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$627,500</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$627,500</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$627,500</t>
-        </is>
+      <c r="D6" t="n">
+        <v>627500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>627500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>627500</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -16096,20 +14776,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$627,500</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$627,500</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$627,500</t>
-        </is>
+      <c r="D7" t="n">
+        <v>627500</v>
+      </c>
+      <c r="E7" t="n">
+        <v>627500</v>
+      </c>
+      <c r="F7" t="n">
+        <v>627500</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -16140,20 +14814,14 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$375,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$375,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$375,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>375000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>375000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>375000</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -16184,20 +14852,14 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$375,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$375,000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$375,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>375000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>375000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>375000</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -16248,17 +14910,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16294,20 +14956,14 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$4,695,000</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$939,000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$785,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>4695000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>939000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>785000</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -16338,20 +14994,14 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>780000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>780000</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -16382,20 +15032,14 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>780000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>780000</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -16426,20 +15070,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>780000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>780000</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
